--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_12_28.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_12_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2011363.644551083</v>
+        <v>2008987.017603717</v>
       </c>
     </row>
     <row r="7">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>80.91335427439705</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>72.94942429078336</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>98.99885694170615</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -877,10 +877,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>185.5217629586825</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>352.9326764562667</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>56.70882917873549</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705011</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,7 +1063,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>96.97633795875007</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>50.98074812542853</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>252.6652313048323</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.54770277295399</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247041</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987943</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>98.23021146256274</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705011</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>218.2275692240561</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>218.6880288329286</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="12">
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819358</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503993</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>182.6625718220553</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>121.8000472740356</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>107.4021082756243</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634814</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>99.97427419833906</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>27.0291980517616</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2248,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>21.90286287505602</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>113.6427030833213</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>146.053516066753</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2719,19 +2719,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>27.02919805175929</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>31.8302520576399</v>
       </c>
     </row>
     <row r="32">
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>139.5115415340516</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3317,10 +3317,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>121.8000472740329</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3481,7 +3481,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238299</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>20.88994825141578</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4141,19 +4141,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.64725059288511</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>944.3110907974333</v>
+        <v>918.0161179218665</v>
       </c>
       <c r="C2" t="n">
-        <v>944.3110907974333</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>944.3110907974333</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>944.3110907974333</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078258</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4334,46 +4334,46 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2100.012626270159</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="V2" t="n">
-        <v>1768.949738926588</v>
+        <v>1644.25053145306</v>
       </c>
       <c r="W2" t="n">
-        <v>1416.181083656474</v>
+        <v>1291.481876182946</v>
       </c>
       <c r="X2" t="n">
-        <v>1416.181083656474</v>
+        <v>918.0161179218665</v>
       </c>
       <c r="Y2" t="n">
-        <v>1026.041751680663</v>
+        <v>918.0161179218665</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542614</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488059</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756909</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182533</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735142</v>
+        <v>684.9695361605191</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049859</v>
+        <v>1092.885047004313</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>1456.147065963533</v>
       </c>
       <c r="N3" t="n">
-        <v>1852.283970943244</v>
+        <v>1843.432194560478</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>2175.50262973664</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568937</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>600.6438724554071</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="C4" t="n">
-        <v>600.6438724554071</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="D4" t="n">
-        <v>600.6438724554071</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="E4" t="n">
-        <v>452.7307788730139</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="F4" t="n">
-        <v>305.8408313751036</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4495,7 +4495,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4507,31 +4507,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S4" t="n">
-        <v>1433.863868194417</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1433.863868194417</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1144.745530698255</v>
+        <v>927.720553932932</v>
       </c>
       <c r="V4" t="n">
-        <v>890.0610424923677</v>
+        <v>673.0360657270452</v>
       </c>
       <c r="W4" t="n">
-        <v>600.6438724554071</v>
+        <v>673.0360657270452</v>
       </c>
       <c r="X4" t="n">
-        <v>600.6438724554071</v>
+        <v>485.6403455667598</v>
       </c>
       <c r="Y4" t="n">
-        <v>600.6438724554071</v>
+        <v>485.6403455667598</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1878.50778578647</v>
+        <v>1589.98859676909</v>
       </c>
       <c r="C5" t="n">
-        <v>1522.010132800342</v>
+        <v>1221.026079828678</v>
       </c>
       <c r="D5" t="n">
-        <v>1163.744434193592</v>
+        <v>1221.026079828678</v>
       </c>
       <c r="E5" t="n">
-        <v>777.9561815953474</v>
+        <v>835.2378272304338</v>
       </c>
       <c r="F5" t="n">
-        <v>366.9702768057398</v>
+        <v>828.2923264812304</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>412.5875762055192</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>108.5284322030895</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.528182236282</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764999</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723852</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.593687005981</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.593687005981</v>
       </c>
       <c r="V5" t="n">
-        <v>2231.276441056584</v>
+        <v>2353.593687005981</v>
       </c>
       <c r="W5" t="n">
-        <v>1878.50778578647</v>
+        <v>2353.593687005981</v>
       </c>
       <c r="X5" t="n">
-        <v>1878.50778578647</v>
+        <v>1980.127928744902</v>
       </c>
       <c r="Y5" t="n">
-        <v>1878.50778578647</v>
+        <v>1589.98859676909</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310614</v>
+        <v>423.1489515180663</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625332</v>
+        <v>717.8525085495382</v>
       </c>
       <c r="M6" t="n">
-        <v>1165.206974733667</v>
+        <v>1081.114527508759</v>
       </c>
       <c r="N6" t="n">
-        <v>1552.492103330612</v>
+        <v>1468.399656105704</v>
       </c>
       <c r="O6" t="n">
-        <v>1884.562538506774</v>
+        <v>2102.578639884743</v>
       </c>
       <c r="P6" t="n">
         <v>2447.023413292609</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>665.1026499885492</v>
+        <v>349.276519562732</v>
       </c>
       <c r="C7" t="n">
-        <v>496.1664670606423</v>
+        <v>349.276519562732</v>
       </c>
       <c r="D7" t="n">
-        <v>346.0498276483066</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E7" t="n">
-        <v>198.1367340659135</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="F7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312208</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693238</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096592</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4744,31 +4744,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1538.490223146468</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1341.861475306329</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1341.861475306329</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1052.743137810166</v>
       </c>
       <c r="V7" t="n">
-        <v>1584.950414897297</v>
+        <v>798.0586496042795</v>
       </c>
       <c r="W7" t="n">
-        <v>1295.533244860336</v>
+        <v>798.0586496042795</v>
       </c>
       <c r="X7" t="n">
-        <v>1067.543693962319</v>
+        <v>570.0690987062621</v>
       </c>
       <c r="Y7" t="n">
-        <v>846.7511148187889</v>
+        <v>349.276519562732</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>859.685290191162</v>
+        <v>890.9810522552812</v>
       </c>
       <c r="C8" t="n">
-        <v>859.685290191162</v>
+        <v>522.0185353148695</v>
       </c>
       <c r="D8" t="n">
-        <v>859.685290191162</v>
+        <v>522.0185353148695</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8970375929177</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>129.2847819674217</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.528182236282</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872921</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764999</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723852</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926628</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2338.417685105857</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2338.417685105857</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056584</v>
+        <v>2007.354797762287</v>
       </c>
       <c r="W8" t="n">
-        <v>1878.50778578647</v>
+        <v>1654.586142492173</v>
       </c>
       <c r="X8" t="n">
-        <v>1505.04202752539</v>
+        <v>1281.120384231093</v>
       </c>
       <c r="Y8" t="n">
-        <v>1114.902695549579</v>
+        <v>890.9810522552812</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500115</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380226</v>
+        <v>298.3188265310616</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>593.0223835625336</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>956.2844025217539</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1590.463386300793</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1922.533821476955</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>496.1664670606423</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="C10" t="n">
-        <v>496.1664670606423</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0498276483066</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312208</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693238</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096592</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4981,31 +4981,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="V10" t="n">
-        <v>1416.01423196939</v>
+        <v>869.6648135671843</v>
       </c>
       <c r="W10" t="n">
-        <v>1126.597061932429</v>
+        <v>648.7678147460443</v>
       </c>
       <c r="X10" t="n">
-        <v>898.6075110344121</v>
+        <v>420.778263848027</v>
       </c>
       <c r="Y10" t="n">
-        <v>677.814931890882</v>
+        <v>199.9856847044969</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5036,19 +5036,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5121,25 +5121,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245705</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>680.0291294438167</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400737</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5206,7 +5206,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,34 +5215,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1790.525374274257</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5261,64 +5261,64 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>315.9123021921471</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637307</v>
+        <v>315.9123021921471</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>913.2907898186992</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>363.7369613277364</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>363.7369613277364</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>216.847013829826</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>216.847013829826</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5443,7 +5443,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5452,34 +5452,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1277.309669727408</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
@@ -5528,37 +5528,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5680,7 +5680,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5689,13 +5689,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
         <v>2197.062545487568</v>
@@ -5713,10 +5713,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,25 +5738,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.55866301478</v>
@@ -5765,34 +5765,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1025.119922845745</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1652.717886400352</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2204.627616639639</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400735</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121666</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121666</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121666</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>198.0274703142562</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038358</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797761</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138434</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703132</v>
       </c>
     </row>
     <row r="23">
@@ -5981,25 +5981,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,28 +6060,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>150.8995423128877</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>484.8243144841084</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>980.1499206998673</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.8641191832229</v>
+        <v>768.5380889459591</v>
       </c>
       <c r="C25" t="n">
-        <v>634.927936255316</v>
+        <v>599.6019060180522</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1723.711884091971</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W25" t="n">
-        <v>1434.29471405501</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X25" t="n">
-        <v>1206.305163156993</v>
+        <v>1170.979132919729</v>
       </c>
       <c r="Y25" t="n">
-        <v>985.5125840134626</v>
+        <v>950.1865537761988</v>
       </c>
     </row>
     <row r="26">
@@ -6206,28 +6206,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121625</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121625</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6403,31 +6403,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="29">
@@ -6449,19 +6449,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6546,22 +6546,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6664,7 +6664,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="32">
@@ -6689,37 +6689,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6929,16 +6929,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6956,13 +6956,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277336</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277336</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>216.8470138298233</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7129,16 +7129,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="38">
@@ -7154,37 +7154,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O39" t="n">
-        <v>2319.799627685893</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7309,19 +7309,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
@@ -7409,10 +7409,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
@@ -7600,19 +7600,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7652,13 +7652,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7728,16 +7728,16 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O45" t="n">
         <v>2516.421633107662</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>445.6984928076085</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>298.8085453096982</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>298.8085453096982</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>157.0967141518962</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8055,22 +8055,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>114.3555089013356</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.3877325071647</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>15.64270034434924</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8301,22 +8301,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>211.0329012241552</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>305.160150103916</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>98.24448441976676</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154983</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878349</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,19 +8541,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.3877325071652</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>280.1079373569261</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154983</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>-1.114306745872683e-12</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>-1.972946057665261e-12</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>46.45968844822855</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>69.4750715017727</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>18.49466557218827</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>110.0033420516639</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823011</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>138.4949402405072</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>143.6212754172128</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>34.97276993489108</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>106.084127257075</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>119.4047645948099</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>186.7544012944549</v>
       </c>
     </row>
     <row r="32">
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>40.32043864788571</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>43.72409101823594</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>18.61858572568042</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>876543.4989389305</v>
+        <v>876543.4989389306</v>
       </c>
     </row>
     <row r="3">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>854823.2572546543</v>
+        <v>854823.2572546542</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>854823.2572546542</v>
+        <v>854823.2572546543</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>854823.2572546543</v>
+        <v>854823.2572546542</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>854823.2572546543</v>
+        <v>854823.2572546542</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>854823.2572546542</v>
+        <v>854823.2572546543</v>
       </c>
     </row>
   </sheetData>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049981</v>
       </c>
       <c r="D2" t="n">
         <v>574729.2389049982</v>
@@ -26326,31 +26326,31 @@
         <v>565002.6197830046</v>
       </c>
       <c r="G2" t="n">
-        <v>565002.6197830047</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="H2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="I2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="J2" t="n">
         <v>565002.6197830045</v>
       </c>
       <c r="K2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830047</v>
       </c>
       <c r="L2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830047</v>
       </c>
       <c r="M2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="N2" t="n">
         <v>565002.6197830045</v>
       </c>
       <c r="O2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="P2" t="n">
         <v>565002.6197830045</v>
@@ -26366,13 +26366,13 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245461</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099822</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,31 +26415,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="C4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618636</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618636</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426731969</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="F4" t="n">
+        <v>8117.312426731924</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8117.312426731918</v>
+      </c>
+      <c r="H4" t="n">
         <v>8117.312426731975</v>
       </c>
-      <c r="G4" t="n">
-        <v>8117.312426731938</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>8117.312426731974</v>
       </c>
-      <c r="I4" t="n">
-        <v>8117.312426731984</v>
-      </c>
       <c r="J4" t="n">
-        <v>8117.312426731984</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="K4" t="n">
         <v>8117.312426731974</v>
@@ -26448,13 +26448,13 @@
         <v>8117.312426731974</v>
       </c>
       <c r="M4" t="n">
+        <v>8117.312426731974</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8117.312426731997</v>
+      </c>
+      <c r="O4" t="n">
         <v>8117.312426731985</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8117.312426731974</v>
-      </c>
-      <c r="O4" t="n">
-        <v>8117.312426731974</v>
       </c>
       <c r="P4" t="n">
         <v>8117.312426731974</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984475</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984476</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-767278.3173726297</v>
+        <v>-767278.3173726299</v>
       </c>
       <c r="C6" t="n">
-        <v>347473.46620329</v>
+        <v>347473.4662032895</v>
       </c>
       <c r="D6" t="n">
-        <v>347473.4662032897</v>
+        <v>347473.4662032898</v>
       </c>
       <c r="E6" t="n">
-        <v>-51722.66409218054</v>
+        <v>-51757.4020176159</v>
       </c>
       <c r="F6" t="n">
-        <v>455762.7775323656</v>
+        <v>455728.0396069299</v>
       </c>
       <c r="G6" t="n">
-        <v>455762.7775323657</v>
+        <v>455728.0396069298</v>
       </c>
       <c r="H6" t="n">
-        <v>455762.7775323655</v>
+        <v>455728.0396069299</v>
       </c>
       <c r="I6" t="n">
-        <v>455762.7775323651</v>
+        <v>455728.0396069299</v>
       </c>
       <c r="J6" t="n">
-        <v>288157.5997223828</v>
+        <v>288122.8617969475</v>
       </c>
       <c r="K6" t="n">
-        <v>455762.7775323653</v>
+        <v>455728.03960693</v>
       </c>
       <c r="L6" t="n">
-        <v>455762.7775323652</v>
+        <v>455728.03960693</v>
       </c>
       <c r="M6" t="n">
-        <v>323155.4838034384</v>
+        <v>323120.7458780031</v>
       </c>
       <c r="N6" t="n">
-        <v>455762.7775323655</v>
+        <v>455728.0396069296</v>
       </c>
       <c r="O6" t="n">
-        <v>455762.7775323655</v>
+        <v>455728.0396069295</v>
       </c>
       <c r="P6" t="n">
-        <v>455762.7775323655</v>
+        <v>455728.0396069298</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175397</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175397</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000393</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="H4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241348</v>
+        <v>433.9106082241345</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996091</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>301.8204873890835</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>292.3234674802242</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,13 +27388,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27552,7 +27552,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>95.66360342003131</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,10 +27597,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>40.18789243035468</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>12.34021531474082</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>9.001083493734917</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>123.4522153987943</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,7 +27783,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>4.581234460823524</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>201.1568951983995</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>130.0686103586482</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,7 +27862,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>108.427973517671</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28062,16 +28062,16 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>33.91007409977189</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>67.83496950366245</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1.508245380440106e-12</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -28983,7 +28983,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -30037,10 +30037,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="U35" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -31045,28 +31045,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31081,7 +31081,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,7 +31118,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
@@ -31130,10 +31130,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040589</v>
@@ -31142,7 +31142,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378626</v>
@@ -31154,10 +31154,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31203,19 +31203,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181061</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.4562495533618</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491901</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857145</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767384</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730007</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342228</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166598</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190647</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147053</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235313</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745102</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436497</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575841</v>
+        <v>189.8178475575842</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.428935217844</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177246</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.065366204059</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762074</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405677</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378627</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.4624964168762</v>
       </c>
       <c r="R6" t="n">
         <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997904</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000176</v>
       </c>
       <c r="U6" t="n">
         <v>0.1321789941675764</v>
@@ -31437,46 +31437,46 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231073</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
-        <v>119.0856174753787</v>
+        <v>119.0856174753788</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227909</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.755972606796</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154674</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169138</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.0437987097484</v>
+        <v>141.0437987097485</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.7358189575959</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.3541376752348</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069565</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024989</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.755034742181061</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.4562495533618</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491901</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857145</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767384</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730007</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342228</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166598</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190647</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147053</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235313</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745102</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436497</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>189.8178475575842</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.428935217844</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177246</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.065366204059</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762074</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405677</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378627</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.4624964168762</v>
       </c>
       <c r="R9" t="n">
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997904</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000176</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31674,46 +31674,46 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231073</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>119.0856174753788</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227909</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.755972606796</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154674</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169138</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>141.0437987097485</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.7358189575959</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.3541376752348</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069565</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024989</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31792,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31841,31 +31841,31 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>326.7634969305192</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>734.2678383622656</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31932,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32029,7 +32029,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32078,31 +32078,31 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>362.1804684129198</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32169,7 +32169,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32266,7 +32266,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32315,31 +32315,31 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>454.5879800486389</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32406,7 +32406,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>448.9178583921309</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663262</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,34 +32777,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>184.4971006716321</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33029,25 +33029,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>508.374771698973</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33196,7 +33196,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
         <v>790.8204499236507</v>
@@ -33266,25 +33266,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>163.1438255932938</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33503,7 +33503,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>194.5189324111251</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,10 +33734,10 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>530.4152909475304</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,10 +33968,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33980,22 +33980,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>163.1438255932938</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>172.8142548092792</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34129,7 +34129,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34214,7 +34214,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>233.3139244897921</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,13 +34223,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34448,7 +34448,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>361.7519118779092</v>
+        <v>699.0496615458086</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34699,28 +34699,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,22 +34775,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>412.0358695391859</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000387</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>351.0673823404723</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
@@ -34799,7 +34799,7 @@
         <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
@@ -34863,7 +34863,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225039</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.564649540734</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067511</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.005010945728</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376319</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949731</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637952</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402559</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939915</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>186.587496243485</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378504</v>
       </c>
       <c r="M6" t="n">
-        <v>577.9642335061958</v>
+        <v>366.9313322820407</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928741</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634695</v>
+        <v>347.9240135432992</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308547</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870599</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.4247593423492</v>
       </c>
       <c r="L7" t="n">
         <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860246</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295071</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818073</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805409</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225039</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.564649540734</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067511</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.005010945728</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376319</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949731</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637952</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402559</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939915</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091751</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313197</v>
+        <v>186.587496243485</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378504</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820407</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000393</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961232</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>529.7874664804585</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308547</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870599</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.4247593423492</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860246</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.6644876295071</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818073</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805409</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>188.9220579561602</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402472</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35577,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902929</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35726,28 +35726,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>224.3390294385608</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35814,7 +35814,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243139</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>311.9917356041944</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36051,7 +36051,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>314.9434509778006</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096363</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396399</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,28 +36431,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>57.65947400496543</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>369.8203919190988</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36771,7 +36771,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998967</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36844,7 +36844,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>20.54758114884936</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,7 +37151,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>55.9645526312509</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>399.073578864197</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37628,22 +37628,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>20.54758114884936</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>27.13475084531527</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37795,7 +37795,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,7 +37862,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>94.75954470991793</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,13 +37871,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>219.1556674334648</v>
+        <v>556.4534171013642</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
